--- a/data/trans_bre/P25_3-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25_3-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-11,02</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>6,32</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>4,51</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-38,12%</t>
+          <t>7,06</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11,38%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>12,75%</t>
+          <t>45,48%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>27,01%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>33,07%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-32,91; 0,81</t>
+          <t>-14,45; 16,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,5; 11,58</t>
+          <t>-8,58; 21,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,34; 14,02</t>
+          <t>-12,07; 20,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-73,23; 7,36</t>
+          <t>-13,65; 31,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-41,03; 91,25</t>
+          <t>-59,09; 230,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-37,25; 97,91</t>
+          <t>-45,76; 333,33</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-47,57; 220,51</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-42,24; 334,34</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,99</t>
+          <t>-5,14</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,87</t>
+          <t>4,99</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-14,44%</t>
+          <t>4,12</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,73%</t>
+          <t>-32,23%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>46,99%</t>
+          <t>-1,66%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>56,42%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>31,25%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,64; 3,53</t>
+          <t>-12,69; 2,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 6,05</t>
+          <t>-8,01; 6,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 10,21</t>
+          <t>-1,21; 12,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-43,89; 32,87</t>
+          <t>-3,99; 11,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-32,37; 61,8</t>
+          <t>-61,74; 25,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-9,95; 131,4</t>
+          <t>-49,04; 71,86</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-13,64; 198,0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-23,51; 126,12</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,94</t>
+          <t>-5,16</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,88</t>
+          <t>-8,53</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,95</t>
+          <t>-8,33</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-23,48%</t>
+          <t>-2,12</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-28,24%</t>
+          <t>-38,96%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-38,49%</t>
+          <t>-50,69%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-51,44%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-11,29%</t>
         </is>
       </c>
     </row>
@@ -802,39 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,12; 2,91</t>
+          <t>-12,87; 1,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,44; 2,06</t>
+          <t>-17,48; -1,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,06; -0,07</t>
+          <t>-16,55; -1,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-57,57; 31,78</t>
+          <t>-10,86; 8,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-54,07; 16,82</t>
+          <t>-71,91; 27,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-63,61; 4,86</t>
+          <t>-77,33; -6,92</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-77,34; -3,63</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-47,59; 64,17</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,87</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-24,21%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-3,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,51%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,61; 0,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 3,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 5,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-48,54; 1,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-28,23; 31,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-18,11; 48,9</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-4,43</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-2,57</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-0,02</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2,77</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-29,55%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-18,15%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,16%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>16,84%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-9,62; -0,01</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-7,74; 2,34</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-4,59; 5,21</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-3,24; 9,66</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-52,79; 1,77</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-46,09; 19,17</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-31,81; 58,74</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-17,02; 74,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P25_3-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25_3-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,96</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>6,32</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>4,51</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>7,06</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>5,88%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>45,48%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>27,01%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>33,07%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-2.205356469227701</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>5.025364473716768</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>3.872509549364414</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>8.468978126138108</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.1181451048294924</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.3128180835615349</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.241211890634737</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.4434862104626059</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-14,45; 16,45</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-8,58; 21,05</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-12,07; 20,41</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-13,65; 31,63</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-59,09; 230,76</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-45,76; 333,33</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-47,57; 220,51</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-42,24; 334,34</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-20.34883562382348</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-12.72773934701422</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-12.31938482388967</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-10.32854252855242</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.7018319387329113</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.5570714089718186</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.4771842294503306</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.3521924942133209</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>13.29277743019342</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>21.67262965958873</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>19.51156317851295</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>31.60464180138336</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>1.385379013351786</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>2.613087721949745</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>2.115834566353983</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>4.014799056475431</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-5,14</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,2</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>4,99</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>4,12</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-32,23%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-1,66%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>56,42%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>31,25%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-12,69; 2,52</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-8,01; 6,05</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,21; 12,01</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-3,99; 11,51</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-61,74; 25,87</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-49,04; 71,86</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-13,64; 198,0</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-23,51; 126,12</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-4.004788365228773</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.03624987148671821</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>5.594009300959763</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>4.111227001647507</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.2657662726329966</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.003047200551360048</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.6624606048893256</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.3154828213434335</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-5,16</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-8,53</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-8,33</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-2,12</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-38,96%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-50,69%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-51,44%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-11,29%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-11.39449588202525</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-7.373280698335622</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.7991465365132481</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-3.756165034084141</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.5887793718299991</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.485434430212225</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.1019639622516993</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.2167978126861663</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-12,87; 1,99</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-17,48; -1,41</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-16,55; -1,13</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-10,86; 8,55</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-71,91; 27,93</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-77,33; -6,92</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-77,34; -3,63</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-47,59; 64,17</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>3.522525289407254</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>6.321618186054087</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>12.37543938945269</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>11.02526083043914</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.3660150447950021</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.739146644834537</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>2.193801068176773</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.29204597243416</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +827,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-4.003403038018074</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-8.626833548027601</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-8.457039727359964</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-2.04526565348882</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.3361132993904454</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.5132662855262399</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.5328025608248925</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.1120651591810156</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-11.38282798033677</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-17.24657934569244</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-16.31274426881635</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-10.60623015856489</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.7078204533110296</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.7792803413634384</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.7803825675759829</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.4701265798555514</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>2.846270937414141</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-1.551120016368761</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-1.400099481610347</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>8.364505774522172</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.3992056814014394</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>-0.08982809583258906</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>-0.06977301635254432</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.6441416231799364</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-4,43</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-2,57</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,02</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>2,77</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-29,55%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-18,15%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-0,16%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>16,84%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-9,62; -0,01</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-7,74; 2,34</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-4,59; 5,21</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-3,24; 9,66</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-52,79; 1,77</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-46,09; 19,17</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-31,81; 58,74</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-17,02; 74,68</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-3.847805046930364</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-2.548366569156236</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.2870889409204866</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>3.088291064752682</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.2680850752208414</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.1787206594457165</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.02374791116933901</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.1958880762869022</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-8.880696032783961</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-7.92285402522521</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-4.22246580058818</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-2.77736825876792</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.5143715162415637</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.4590834443358029</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.3064777501159705</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.1442087478186704</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.7723916763124733</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>2.317714780153129</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>5.407144304550088</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>9.763394313007172</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.06821793456111382</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.2050792932411943</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.6136784521276645</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.7602110962101185</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
